--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Nxph3</t>
+  </si>
+  <si>
+    <t>Nrxn2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Nxph3</t>
-  </si>
-  <si>
-    <t>Nrxn2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03982866666666666</v>
+        <v>0.4198326666666667</v>
       </c>
       <c r="H2">
-        <v>0.119486</v>
+        <v>1.259498</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03061966666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N2">
-        <v>0.091859</v>
+        <v>0.409392</v>
       </c>
       <c r="O2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q2">
-        <v>0.001219540497111111</v>
+        <v>0.057292045024</v>
       </c>
       <c r="R2">
-        <v>0.010975864474</v>
+        <v>0.515628405216</v>
       </c>
       <c r="S2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="T2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03982866666666666</v>
+        <v>0.4198326666666667</v>
       </c>
       <c r="H3">
-        <v>0.119486</v>
+        <v>1.259498</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>0.9586520000000001</v>
       </c>
       <c r="O3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q3">
-        <v>0.01272727698577778</v>
+        <v>0.1341578085217778</v>
       </c>
       <c r="R3">
-        <v>0.114545492872</v>
+        <v>1.207420276696</v>
       </c>
       <c r="S3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="T3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4198326666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.259498</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01800166666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.054005</v>
+      </c>
+      <c r="O4">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="P4">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="Q4">
+        <v>0.007557687721111111</v>
+      </c>
+      <c r="R4">
+        <v>0.06801918948999999</v>
+      </c>
+      <c r="S4">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="T4">
+        <v>0.03505486552186345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4198326666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.259498</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.03982866666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.119486</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.2893163333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.867949</v>
-      </c>
-      <c r="O4">
-        <v>0.4524196490935437</v>
-      </c>
-      <c r="P4">
-        <v>0.4524196490935438</v>
-      </c>
-      <c r="Q4">
-        <v>0.01152308380155556</v>
-      </c>
-      <c r="R4">
-        <v>0.103707754214</v>
-      </c>
-      <c r="S4">
-        <v>0.4524196490935437</v>
-      </c>
-      <c r="T4">
-        <v>0.4524196490935438</v>
+      <c r="M5">
+        <v>0.039512</v>
+      </c>
+      <c r="N5">
+        <v>0.118536</v>
+      </c>
+      <c r="O5">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="P5">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="Q5">
+        <v>0.01658842832533333</v>
+      </c>
+      <c r="R5">
+        <v>0.149295854928</v>
+      </c>
+      <c r="S5">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="T5">
+        <v>0.0769422005277216</v>
       </c>
     </row>
   </sheetData>
